--- a/7843_BAU_Augments/7843_bau_augment_template.xlsx
+++ b/7843_BAU_Augments/7843_bau_augment_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="2" r:id="rId1"/>
@@ -452,6 +452,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charter:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to move to et-0/0/6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -730,12 +754,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charter: 
+CBOBBIPPD ticket</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>BW</t>
   </si>
@@ -833,119 +872,260 @@
     <t>Z_Router_IP</t>
   </si>
   <si>
-    <t>169.254.1.1</t>
-  </si>
-  <si>
     <t>JIRA</t>
   </si>
   <si>
     <t>CBOBBIPPD-3561</t>
   </si>
   <si>
-    <t>169.254.1.0</t>
-  </si>
-  <si>
-    <t>CHN00000000</t>
-  </si>
-  <si>
-    <t>169.254.1.2</t>
-  </si>
-  <si>
-    <t>169.254.1.3</t>
-  </si>
-  <si>
     <t>cr0.nsv30</t>
   </si>
   <si>
     <t>BB</t>
   </si>
   <si>
-    <t>et-0/0/0</t>
-  </si>
-  <si>
-    <t>et-1/0/0</t>
-  </si>
-  <si>
-    <t>32-A-2-T1</t>
-  </si>
-  <si>
     <t>NSVNTNJYOS1</t>
   </si>
   <si>
-    <t>36-A-2-T5</t>
-  </si>
-  <si>
-    <t>Hu0/0/0/24</t>
-  </si>
-  <si>
-    <t>Hu0/1/0/24</t>
-  </si>
-  <si>
-    <t>cr0.dfw10</t>
-  </si>
-  <si>
-    <t>40-A-2-T1</t>
-  </si>
-  <si>
-    <t>44-A-2-T5</t>
-  </si>
-  <si>
-    <t>DLLSTX970S1</t>
-  </si>
-  <si>
     <t>et-2/0/0</t>
   </si>
   <si>
-    <t>169.254.1.4</t>
-  </si>
-  <si>
-    <t>36-A-2-T7</t>
-  </si>
-  <si>
-    <t>44-A-2-T7</t>
-  </si>
-  <si>
-    <t>169.254.1.6</t>
-  </si>
-  <si>
-    <t>Hu0/2/0/24</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f1/127</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f2/127</t>
-  </si>
-  <si>
-    <t>107.14.19.194/31</t>
-  </si>
-  <si>
-    <t>107.14.19.196/31</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f3/127</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f5/127</t>
-  </si>
-  <si>
-    <t>107.14.19.195/31</t>
-  </si>
-  <si>
-    <t>107.14.19.197/31</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f4/127</t>
-  </si>
-  <si>
-    <t>2001:1998:0:4::f6/127</t>
+    <t>2001:1998:0:4::fe/127</t>
+  </si>
+  <si>
+    <t>2001:1998:0:4::ff/127</t>
+  </si>
+  <si>
+    <t>et-1/0/6</t>
+  </si>
+  <si>
+    <t>et-2/0/6</t>
+  </si>
+  <si>
+    <t>et-3/0/6</t>
+  </si>
+  <si>
+    <t>et-4/0/6</t>
+  </si>
+  <si>
+    <t>et-5/0/6</t>
+  </si>
+  <si>
+    <t>et-6/0/6</t>
+  </si>
+  <si>
+    <t>et-7/0/6</t>
+  </si>
+  <si>
+    <t>et-8/0/6</t>
+  </si>
+  <si>
+    <t>et-0/0/7</t>
+  </si>
+  <si>
+    <t>et-1/0/7</t>
+  </si>
+  <si>
+    <t>et-2/0/7</t>
+  </si>
+  <si>
+    <t>CHN0000000</t>
+  </si>
+  <si>
+    <t>169.254.0.0</t>
+  </si>
+  <si>
+    <t>169.254.0.2</t>
+  </si>
+  <si>
+    <t>169.254.0.4</t>
+  </si>
+  <si>
+    <t>169.254.0.6</t>
+  </si>
+  <si>
+    <t>169.254.0.8</t>
+  </si>
+  <si>
+    <t>169.254.0.10</t>
+  </si>
+  <si>
+    <t>169.254.0.12</t>
+  </si>
+  <si>
+    <t>169.254.0.14</t>
+  </si>
+  <si>
+    <t>169.254.0.16</t>
+  </si>
+  <si>
+    <t>169.254.0.18</t>
+  </si>
+  <si>
+    <t>169.254.0.20</t>
+  </si>
+  <si>
+    <t>169.254.0.22</t>
+  </si>
+  <si>
+    <t>37-A-2-T1</t>
+  </si>
+  <si>
+    <t>53-A-2-T2</t>
+  </si>
+  <si>
+    <t>53-A-2-T3</t>
+  </si>
+  <si>
+    <t>53-A-2-T5</t>
+  </si>
+  <si>
+    <t>53-A-2-T6</t>
+  </si>
+  <si>
+    <t>53-A-2-T7</t>
+  </si>
+  <si>
+    <t>53-A-2-T9</t>
+  </si>
+  <si>
+    <t>53-A-2-T10</t>
+  </si>
+  <si>
+    <t>53-A-2-T11</t>
+  </si>
+  <si>
+    <t>54-A-2-T1</t>
+  </si>
+  <si>
+    <t>54-A-2-T2</t>
+  </si>
+  <si>
+    <t>54-A-2-T3</t>
+  </si>
+  <si>
+    <t>CHCGILDTOS1</t>
+  </si>
+  <si>
+    <t>58-A-2-T2</t>
+  </si>
+  <si>
+    <t>58-A-2-T3</t>
+  </si>
+  <si>
+    <t>58-A-2-T5</t>
+  </si>
+  <si>
+    <t>58-A-2-T6</t>
+  </si>
+  <si>
+    <t>58-A-2-T7</t>
+  </si>
+  <si>
+    <t>58-A-2-T9</t>
+  </si>
+  <si>
+    <t>58-A-2-T10</t>
+  </si>
+  <si>
+    <t>58-A-2-T11</t>
+  </si>
+  <si>
+    <t>59-A-2-T1</t>
+  </si>
+  <si>
+    <t>59-A-2-T2</t>
+  </si>
+  <si>
+    <t>59-A-2-T3</t>
+  </si>
+  <si>
+    <t>169.254.0.1</t>
+  </si>
+  <si>
+    <t>169.254.0.3</t>
+  </si>
+  <si>
+    <t>169.254.0.5</t>
+  </si>
+  <si>
+    <t>169.254.0.7</t>
+  </si>
+  <si>
+    <t>169.254.0.9</t>
+  </si>
+  <si>
+    <t>169.254.0.11</t>
+  </si>
+  <si>
+    <t>169.254.0.13</t>
+  </si>
+  <si>
+    <t>169.254.0.15</t>
+  </si>
+  <si>
+    <t>169.254.0.17</t>
+  </si>
+  <si>
+    <t>169.254.0.19</t>
+  </si>
+  <si>
+    <t>169.254.0.21</t>
+  </si>
+  <si>
+    <t>169.254.0.23</t>
+  </si>
+  <si>
+    <t>Hu0/0/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/1/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/2/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/3/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/4/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/5/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/6/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/7/0/21</t>
+  </si>
+  <si>
+    <t>Hu0/1/0/22</t>
+  </si>
+  <si>
+    <t>Hu0/2/0/22</t>
+  </si>
+  <si>
+    <t>Hu0/3/0/22</t>
+  </si>
+  <si>
+    <t>Hu0/4/0/22</t>
+  </si>
+  <si>
+    <t>cr0.chi10</t>
+  </si>
+  <si>
+    <t>cr0.nsv30 to cr0.chi10 (1100G)</t>
+  </si>
+  <si>
+    <t>PATH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,8 +1166,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1047,8 +1244,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,33 +1543,33 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1412,394 +1622,700 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="4">
         <v>100</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4">
+        <v>402</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>403</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="O2" s="4">
-        <v>401</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4">
-        <v>402</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="I3" s="4">
         <v>100</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="O3" s="4">
         <v>402</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>403</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="I4" s="4">
         <v>100</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="O4" s="4">
+        <v>402</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>403</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="G5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4">
+        <v>402</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>403</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="G6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="4">
+        <v>402</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>403</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="G7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="4">
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="4">
+        <v>402</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
         <v>403</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4">
+        <v>100</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="4">
+        <v>402</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>403</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="4">
+        <v>402</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <v>403</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4">
+        <v>100</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="4">
+        <v>402</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>403</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4">
+        <v>100</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="4">
+        <v>402</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
+        <v>403</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4">
+        <v>100</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="4">
+        <v>402</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4">
+        <v>403</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4">
+        <v>100</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="4">
+        <v>402</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1818,7 +2334,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1837,7 +2353,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1856,7 +2372,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1875,7 +2391,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1894,7 +2410,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1913,7 +2429,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1932,7 +2448,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1951,7 +2467,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1970,7 +2486,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1989,7 +2505,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2008,7 +2524,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2027,7 +2543,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2046,7 +2562,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2065,7 +2581,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2084,7 +2600,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2103,7 +2619,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2122,7 +2638,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2141,7 +2657,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2160,7 +2676,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2179,7 +2695,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2198,7 +2714,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2217,7 +2733,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2236,7 +2752,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2255,7 +2771,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2274,1190 +2790,73 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -3471,12 +2870,11 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3490,12 +2888,11 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -3509,12 +2906,11 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -3528,12 +2924,11 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -3547,12 +2942,11 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -3566,12 +2960,11 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -3585,12 +2978,11 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -3604,12 +2996,11 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -3623,12 +3014,11 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -3642,12 +3032,11 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -3661,12 +3050,11 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3680,12 +3068,11 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3699,12 +3086,11 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3718,12 +3104,11 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3737,12 +3122,11 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3756,12 +3140,11 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3775,12 +3158,11 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3794,12 +3176,11 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3813,12 +3194,11 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -3832,12 +3212,11 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3851,12 +3230,11 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -3870,12 +3248,11 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -3889,12 +3266,11 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -3908,12 +3284,11 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -3927,12 +3302,11 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -3946,12 +3320,11 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -3965,12 +3338,11 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -3984,12 +3356,11 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4003,12 +3374,11 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4022,12 +3392,11 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -4041,12 +3410,11 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -4060,12 +3428,11 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4079,12 +3446,11 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4098,12 +3464,11 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -4117,12 +3482,11 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -4136,12 +3500,11 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -4155,12 +3518,11 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -4174,12 +3536,11 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -4193,12 +3554,11 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -4212,12 +3572,11 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -4231,12 +3590,11 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -4250,12 +3608,11 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -4269,12 +3626,11 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -4288,12 +3644,11 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -4307,12 +3662,11 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -4326,12 +3680,11 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -4345,12 +3698,11 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -4364,12 +3716,11 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -4383,12 +3734,11 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -4402,12 +3752,11 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -4421,12 +3770,11 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -4440,12 +3788,11 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -4459,12 +3806,11 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -4478,12 +3824,11 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -4497,12 +3842,11 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -4516,12 +3860,11 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -4535,12 +3878,11 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -4554,12 +3896,11 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -4573,12 +3914,11 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -4592,12 +3932,11 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -4611,12 +3950,11 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -4630,12 +3968,11 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -4649,12 +3986,11 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -4668,12 +4004,11 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -4687,12 +4022,11 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -4706,12 +4040,11 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -4725,12 +4058,11 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -4744,12 +4076,11 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -4763,12 +4094,11 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -4782,12 +4112,11 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -4801,12 +4130,11 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -4820,12 +4148,11 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -4839,12 +4166,11 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -4858,12 +4184,11 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -4877,12 +4202,11 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -4896,12 +4220,11 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -4915,12 +4238,11 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -4934,12 +4256,11 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -4953,12 +4274,11 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -4972,12 +4292,11 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -4991,12 +4310,11 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -5010,12 +4328,11 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -5029,12 +4346,11 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -5048,12 +4364,11 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -5067,12 +4382,11 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -5086,12 +4400,11 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -5105,12 +4418,11 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -5124,12 +4436,11 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -5143,12 +4454,11 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -5162,12 +4472,11 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -5181,12 +4490,11 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -5200,12 +4508,11 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -5219,12 +4526,11 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -5238,12 +4544,11 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -5257,12 +4562,11 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -5276,12 +4580,11 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -5295,12 +4598,11 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -5314,12 +4616,11 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -5333,12 +4634,11 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -5352,12 +4652,11 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -5371,12 +4670,11 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -5390,12 +4688,11 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -5409,12 +4706,11 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -5428,12 +4724,11 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -5447,12 +4742,11 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -5466,12 +4760,11 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -5485,12 +4778,11 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -5504,12 +4796,11 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -5523,12 +4814,11 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -5542,12 +4832,11 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -5561,12 +4850,11 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -5580,12 +4868,11 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -5599,12 +4886,11 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -5618,12 +4904,11 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -5637,12 +4922,11 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -5656,12 +4940,11 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -5675,12 +4958,11 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -5694,12 +4976,11 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -5713,12 +4994,11 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -5732,12 +5012,11 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -5751,12 +5030,11 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -5770,12 +5048,11 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -5789,12 +5066,11 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -5808,12 +5084,11 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -5827,12 +5102,11 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -5846,12 +5120,11 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -5865,12 +5138,11 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -5884,12 +5156,11 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -5903,12 +5174,11 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -5922,12 +5192,11 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -5941,12 +5210,11 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -5960,12 +5228,11 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -5979,12 +5246,11 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -5998,12 +5264,11 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -6017,12 +5282,11 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -6036,12 +5300,11 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -6055,12 +5318,11 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -6074,12 +5336,11 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -6093,12 +5354,11 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -6112,12 +5372,11 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -6131,12 +5390,11 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -6150,12 +5408,11 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -6169,12 +5426,11 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -6188,12 +5444,11 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -6207,12 +5462,11 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -6226,12 +5480,11 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -6245,12 +5498,11 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -6264,12 +5516,11 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -6283,12 +5534,11 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -6302,12 +5552,11 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -6321,12 +5570,11 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -6340,12 +5588,11 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -6359,12 +5606,11 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -6378,12 +5624,11 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -6397,12 +5642,11 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -6416,12 +5660,11 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -6435,12 +5678,11 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -6454,12 +5696,11 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -6473,12 +5714,11 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -6492,12 +5732,11 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -6511,12 +5750,11 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -6530,12 +5768,11 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -6549,12 +5786,11 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -6568,12 +5804,11 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -6587,12 +5822,11 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -6606,12 +5840,11 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -6625,12 +5858,11 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -6644,12 +5876,11 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -6663,12 +5894,11 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -6682,12 +5912,11 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -6701,12 +5930,11 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -6720,12 +5948,11 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -6739,12 +5966,11 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -6758,12 +5984,11 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -6777,12 +6002,11 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -6796,12 +6020,11 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -6815,12 +6038,11 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -6834,12 +6056,11 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -6853,12 +6074,11 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -6872,12 +6092,11 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -6891,12 +6110,11 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -6910,12 +6128,11 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -6929,12 +6146,11 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -6948,12 +6164,11 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -6967,12 +6182,11 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -6986,12 +6200,11 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -7005,12 +6218,11 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -7024,12 +6236,11 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -7043,12 +6254,11 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -7062,12 +6272,11 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -7081,12 +6290,11 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -7100,12 +6308,11 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -7119,12 +6326,11 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -7138,12 +6344,11 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -7157,12 +6362,11 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -7176,12 +6380,11 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -7195,12 +6398,11 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -7214,12 +6416,11 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -7233,12 +6434,11 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -7252,12 +6452,11 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -7271,12 +6470,11 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -7290,12 +6488,11 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -7309,12 +6506,11 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -7328,12 +6524,11 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -7347,12 +6542,11 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -7366,12 +6560,11 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -7385,12 +6578,11 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -7404,12 +6596,11 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -7423,12 +6614,11 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -7442,12 +6632,11 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -7461,12 +6650,11 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -7480,12 +6668,11 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -7499,12 +6686,11 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -7518,12 +6704,11 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -7537,12 +6722,11 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -7556,12 +6740,11 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -7575,12 +6758,11 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -7594,12 +6776,11 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -7613,12 +6794,11 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -7632,12 +6812,11 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -7651,12 +6830,11 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -7670,12 +6848,11 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -7689,12 +6866,11 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -7708,12 +6884,11 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -7727,12 +6902,11 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -7746,12 +6920,11 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -7765,12 +6938,11 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
@@ -7784,12 +6956,11 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -7803,12 +6974,11 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
@@ -7822,12 +6992,11 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -7841,12 +7010,11 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -7860,12 +7028,11 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -7879,12 +7046,11 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -7898,12 +7064,11 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -7917,12 +7082,11 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -7936,12 +7100,11 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -7955,12 +7118,11 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -7974,12 +7136,11 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
@@ -7993,12 +7154,11 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
@@ -8012,12 +7172,11 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
@@ -8031,12 +7190,11 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -8050,12 +7208,11 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -8069,12 +7226,11 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -8088,12 +7244,11 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -8107,12 +7262,11 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -8126,12 +7280,11 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
@@ -8145,12 +7298,11 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -8164,12 +7316,11 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -8184,6 +7335,8 @@
       <c r="Q352" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection password="C5A9" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:Q1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8196,25 +7349,25 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -8246,21 +7399,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -8269,80 +7422,40 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="5">
-        <v>402</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="5">
-        <v>402</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="5">
-        <v>403</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="5">
-        <v>403</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8354,7 +7467,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8366,7 +7479,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8378,7 +7491,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8390,7 +7503,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8402,7 +7515,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8414,7 +7527,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8426,7 +7539,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8438,7 +7551,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8450,7 +7563,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8462,7 +7575,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8474,7 +7587,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8486,7 +7599,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8498,7 +7611,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8510,7 +7623,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8522,7 +7635,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8534,7 +7647,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8546,7 +7659,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8558,7 +7671,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8570,7 +7683,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8582,7 +7695,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -8594,7 +7707,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8606,7 +7719,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8618,7 +7731,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8630,7 +7743,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8642,7 +7755,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8654,7 +7767,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8666,7 +7779,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8678,7 +7791,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8690,7 +7803,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8702,7 +7815,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8714,7 +7827,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8726,7 +7839,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8738,7 +7851,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8750,7 +7863,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8762,7 +7875,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8774,7 +7887,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8786,7 +7899,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8798,7 +7911,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8810,7 +7923,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8822,7 +7935,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8834,7 +7947,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8846,7 +7959,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8858,7 +7971,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -8870,7 +7983,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8882,7 +7995,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8894,7 +8007,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -8906,7 +8019,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8918,7 +8031,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -8930,7 +8043,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -8942,7 +8055,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -8954,7 +8067,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8966,7 +8079,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -8978,7 +8091,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -8990,7 +8103,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9002,7 +8115,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9014,7 +8127,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9026,7 +8139,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9038,7 +8151,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9050,7 +8163,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9062,7 +8175,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9074,7 +8187,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9086,7 +8199,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9098,7 +8211,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -9110,7 +8223,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -9122,7 +8235,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -9134,7 +8247,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9146,7 +8259,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9158,7 +8271,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9170,7 +8283,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9182,7 +8295,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9194,7 +8307,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9206,7 +8319,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9218,7 +8331,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9230,7 +8343,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9242,7 +8355,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9254,7 +8367,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9266,7 +8379,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9278,7 +8391,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9290,7 +8403,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9302,7 +8415,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9314,7 +8427,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9326,7 +8439,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9338,7 +8451,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9350,7 +8463,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9362,7 +8475,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9374,7 +8487,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9386,7 +8499,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9398,7 +8511,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9410,7 +8523,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9422,7 +8535,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9434,7 +8547,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9446,7 +8559,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9458,7 +8571,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9470,7 +8583,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9482,7 +8595,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9494,7 +8607,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9506,7 +8619,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9518,7 +8631,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9530,7 +8643,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9542,7 +8655,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9554,7 +8667,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9566,7 +8679,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9578,7 +8691,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -9590,7 +8703,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -9602,7 +8715,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -9614,7 +8727,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -9626,7 +8739,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -9638,7 +8751,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -9650,7 +8763,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -9662,7 +8775,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -9674,7 +8787,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -9686,7 +8799,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9698,7 +8811,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9710,7 +8823,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9722,7 +8835,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9734,7 +8847,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -9746,7 +8859,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9758,7 +8871,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9770,7 +8883,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -9782,7 +8895,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9794,7 +8907,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9806,7 +8919,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9818,7 +8931,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9830,7 +8943,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9842,7 +8955,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9854,7 +8967,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9866,7 +8979,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9878,7 +8991,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9890,7 +9003,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9902,7 +9015,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9914,7 +9027,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9926,7 +9039,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9938,7 +9051,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9950,7 +9063,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9962,7 +9075,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9974,7 +9087,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9986,7 +9099,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9998,7 +9111,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -10010,7 +9123,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -10022,7 +9135,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -10034,7 +9147,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -10046,7 +9159,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -10058,7 +9171,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -10070,7 +9183,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -10082,7 +9195,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -10094,7 +9207,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -10106,7 +9219,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10118,7 +9231,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10130,7 +9243,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10142,7 +9255,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -10154,7 +9267,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10166,7 +9279,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10178,7 +9291,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10190,7 +9303,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10202,7 +9315,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10214,7 +9327,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10226,7 +9339,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10238,7 +9351,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10250,7 +9363,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10262,7 +9375,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10274,7 +9387,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10286,7 +9399,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10298,7 +9411,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10310,7 +9423,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10322,7 +9435,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10334,7 +9447,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10346,7 +9459,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10358,7 +9471,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10370,7 +9483,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10382,7 +9495,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10394,7 +9507,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10406,7 +9519,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10418,7 +9531,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10430,7 +9543,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10442,7 +9555,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10454,7 +9567,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10466,7 +9579,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10478,7 +9591,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10490,7 +9603,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10502,7 +9615,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10514,7 +9627,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10526,7 +9639,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10538,7 +9651,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10550,7 +9663,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10562,7 +9675,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10574,7 +9687,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10586,7 +9699,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10598,7 +9711,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10610,7 +9723,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10622,7 +9735,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10634,7 +9747,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10646,7 +9759,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10658,7 +9771,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10670,7 +9783,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10682,7 +9795,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10694,7 +9807,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10706,7 +9819,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10718,7 +9831,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10730,7 +9843,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -10742,7 +9855,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10754,7 +9867,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10766,7 +9879,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10778,7 +9891,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10790,7 +9903,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10802,7 +9915,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10814,7 +9927,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10826,7 +9939,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10838,7 +9951,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10850,7 +9963,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10862,7 +9975,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10874,7 +9987,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10886,7 +9999,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10898,7 +10011,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10910,7 +10023,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10922,7 +10035,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10934,7 +10047,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -10946,7 +10059,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -10958,7 +10071,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -10970,7 +10083,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -10982,7 +10095,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -10994,7 +10107,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -11006,7 +10119,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -11018,7 +10131,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -11030,7 +10143,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -11042,7 +10155,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -11054,7 +10167,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -11066,7 +10179,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -11078,7 +10191,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -11090,7 +10203,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -11102,7 +10215,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -11114,7 +10227,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -11126,7 +10239,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -11138,7 +10251,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -11150,7 +10263,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -11162,7 +10275,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -11174,7 +10287,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -11186,7 +10299,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -11198,7 +10311,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -11210,7 +10323,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -11222,7 +10335,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -11234,7 +10347,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -11246,7 +10359,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -11258,7 +10371,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -11270,7 +10383,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -11282,7 +10395,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -11294,7 +10407,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -11306,7 +10419,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -11318,7 +10431,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -11330,7 +10443,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -11342,7 +10455,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -11354,7 +10467,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -11366,7 +10479,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -11379,6 +10492,7 @@
       <c r="J257" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection password="C5A9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -11387,26 +10501,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
